--- a/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Materia_2018-Junio.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Pozo Almonte_Garantia_Ingresos Causas Por Materia_2018-Junio.xlsx
@@ -297,27 +297,27 @@
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
+          <t xml:space="preserve">Conduc.estado De Ebriedad Con O Sin Daños O Lesiones Leves.</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
+          <t xml:space="preserve">Conduc.sin La Licencia Debida Art 194 Ley De Transito.</t>
         </is>
       </c>
       <c r="B12" s="65">
@@ -327,37 +327,37 @@
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
+          <t xml:space="preserve">Consumo/Porte De Drogas En Lugares Calificados (Art. 51).</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
+          <t xml:space="preserve">Consumo/Porte En Lug.pub.o Priv.c/Previo Concierto(Art.50).</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Corte/Destr. Arbol/Arbusto. Reg.art.21 4363,1931Y Ley Bosque</t>
+          <t xml:space="preserve">Contrab. Infrac A La Ord. De Aduan Art 168. Ley 20.780</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
+          <t xml:space="preserve">Corte/Destr. Arbol/Arbusto. Reg.art.21 4363,1931Y Ley Bosque</t>
         </is>
       </c>
       <c r="B16" s="65">
@@ -367,37 +367,37 @@
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
+          <t xml:space="preserve">Cuasidelito De Homicidio.</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Daños Simples.</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Dejar Animales Sueltos (496 Nr 17 Codigo Penal).</t>
+          <t xml:space="preserve">Daños Simples.</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
+          <t xml:space="preserve">Dejar Animales Sueltos (496 Nr 17 Codigo Penal).</t>
         </is>
       </c>
       <c r="B20" s="65">
@@ -407,27 +407,27 @@
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
+          <t xml:space="preserve">Delito Desordenes Publicos Art. 269 (No Falta Del Codigo 130</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
+          <t xml:space="preserve">Desacato (Art. 240 Codigo De Procedimiento Civil).</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Extranje. Ingresan O Intentan Egresar C/Documentos Falsific.</t>
+          <t xml:space="preserve">Estafas Y Otras Defraudaciones Contra Particulares</t>
         </is>
       </c>
       <c r="B23" s="65">
@@ -437,27 +437,27 @@
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
+          <t xml:space="preserve">Extranje. Ingresan O Intentan Egresar C/Documentos Falsific.</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
+          <t xml:space="preserve">Extranjeros Que Ingresan O Intentan Egresar Clandestinamente</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>2</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
+          <t xml:space="preserve">Falsificacion O Uso Maliciosos De Documentos Publicos.</t>
         </is>
       </c>
       <c r="B26" s="65">
@@ -467,7 +467,7 @@
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Hallazgo De Vehiculo.</t>
+          <t xml:space="preserve">Fraudes Al Fisco Y Organismos Del Estado (Art. 239).</t>
         </is>
       </c>
       <c r="B27" s="65">
@@ -477,37 +477,37 @@
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Hallazgo De Vehiculo.</t>
         </is>
       </c>
       <c r="B28" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c t="inlineStr" r="A29">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B29" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c t="inlineStr" r="A30">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B30" s="65">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c t="inlineStr" r="A31">
         <is>
-          <t xml:space="preserve">Infrac. Ley Gral Telecom.art.letras A,B,C Y D (Excl.letra E)</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor Sobre 40 Utm.</t>
         </is>
       </c>
       <c r="B31" s="65">
@@ -517,7 +517,7 @@
     <row r="32">
       <c t="inlineStr" r="A32">
         <is>
-          <t xml:space="preserve">Lesiones Leves 494 N°5 Código Penal</t>
+          <t xml:space="preserve">Infrac. Ley Gral Telecom.art.letras A,B,C Y D (Excl.letra E)</t>
         </is>
       </c>
       <c r="B32" s="65">
@@ -527,37 +527,37 @@
     <row r="33">
       <c t="inlineStr" r="A33">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Lesiones Leves 494 N°5 Código Penal</t>
         </is>
       </c>
       <c r="B33" s="65">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c t="inlineStr" r="A34">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B34" s="65">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
       <c t="inlineStr" r="A35">
         <is>
-          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B35" s="65">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c t="inlineStr" r="A36">
         <is>
-          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
+          <t xml:space="preserve">Maltrato Habitual(Violencia Intrafamiliar) (Art. 14).</t>
         </is>
       </c>
       <c r="B36" s="65">
@@ -567,17 +567,17 @@
     <row r="37">
       <c t="inlineStr" r="A37">
         <is>
-          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
+          <t xml:space="preserve">Maltrato Obra A Carabineros Art. 416 Bis Codigo Just.militar</t>
         </is>
       </c>
       <c r="B37" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c t="inlineStr" r="A38">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Malversacion De Caudales Publicos.</t>
         </is>
       </c>
       <c r="B38" s="65">
@@ -587,37 +587,37 @@
     <row r="39">
       <c t="inlineStr" r="A39">
         <is>
-          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B39" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
       <c t="inlineStr" r="A40">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Ofensas Al Pudor (495 Nr 5 Codigo Penal).</t>
         </is>
       </c>
       <c r="B40" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c t="inlineStr" r="A41">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B41" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c t="inlineStr" r="A42">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B42" s="65">
@@ -627,27 +627,27 @@
     <row r="43">
       <c t="inlineStr" r="A43">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B43" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c t="inlineStr" r="A44">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B44" s="65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
       <c t="inlineStr" r="A45">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B45" s="65">
@@ -657,17 +657,17 @@
     <row r="46">
       <c t="inlineStr" r="A46">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B46" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c t="inlineStr" r="A47">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B47" s="65">
@@ -677,17 +677,17 @@
     <row r="48">
       <c t="inlineStr" r="A48">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B48" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c t="inlineStr" r="A49">
         <is>
-          <t xml:space="preserve">Robo Con Homicidio.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B49" s="65">
@@ -697,27 +697,27 @@
     <row r="50">
       <c t="inlineStr" r="A50">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Homicidio.</t>
         </is>
       </c>
       <c r="B50" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c t="inlineStr" r="A51">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B51" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c t="inlineStr" r="A52">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B52" s="65">
@@ -727,20 +727,30 @@
     <row r="53">
       <c t="inlineStr" r="A53">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B53" s="65">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c t="inlineStr" r="A54">
         <is>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+        </is>
+      </c>
+      <c r="B54" s="65">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c t="inlineStr" r="A55">
+        <is>
           <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
-      <c r="B54" s="65">
+      <c r="B55" s="65">
         <v>1</v>
       </c>
     </row>
